--- a/data/trans_dic/P5B_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P5B_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,7; 6,38</t>
+          <t>0,7; 6,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -874,17 +874,17 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,55</t>
+          <t>0,0; 5,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,1</t>
+          <t>0,0; 2,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,8; 7,24</t>
+          <t>0,79; 6,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,11</t>
+          <t>0,0; 5,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,09; 5,2</t>
+          <t>1,07; 4,78</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -914,19 +914,19 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,34</t>
+          <t>0,36; 3,4</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,32</t>
+          <t>0,0; 1,21</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,37 +1004,37 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,29; 7,99</t>
+          <t>2,36; 8,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 6,49</t>
+          <t>1,29; 6,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,66</t>
+          <t>0,33; 3,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,8</t>
+          <t>0,0; 1,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,16; 8,46</t>
+          <t>2,14; 8,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,1; 6,79</t>
+          <t>1,09; 6,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,46</t>
+          <t>0,0; 2,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,29 +1044,29 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,9; 7,05</t>
+          <t>2,91; 7,16</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,7; 5,37</t>
+          <t>1,69; 5,15</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,39</t>
+          <t>0,35; 2,36</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,16</t>
+          <t>0,0; 1,03</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,64</t>
+          <t>0,0; 3,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,18</t>
+          <t>0,0; 4,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,14</t>
+          <t>0,0; 3,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,42 +1164,42 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,56; 5,02</t>
+          <t>0,58; 5,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,39</t>
+          <t>0,0; 2,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,5; 6,94</t>
+          <t>1,47; 6,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,5; 22,25</t>
+          <t>0,52; 22,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,17</t>
+          <t>0,55; 3,38</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,27; 3,0</t>
+          <t>0,28; 2,74</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,12; 4,16</t>
+          <t>1,05; 3,97</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,25; 12,93</t>
+          <t>0,13; 11,97</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,63; 6,9</t>
+          <t>1,65; 6,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,48</t>
+          <t>0,41; 3,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,64</t>
+          <t>0,38; 3,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,5; 8,59</t>
+          <t>2,49; 8,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,11; 9,74</t>
+          <t>3,09; 9,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,43; 6,58</t>
+          <t>1,04; 6,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,12</t>
+          <t>0,49; 4,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,95</t>
+          <t>0,68; 3,96</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,12; 7,15</t>
+          <t>3,03; 7,02</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,82</t>
+          <t>1,03; 4,07</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,66; 3,06</t>
+          <t>0,64; 2,89</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,95; 5,08</t>
+          <t>1,99; 5,43</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,92; 4,43</t>
+          <t>1,99; 4,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,85; 2,6</t>
+          <t>0,85; 2,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,0</t>
+          <t>0,53; 2,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,18</t>
+          <t>0,68; 2,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,57; 5,55</t>
+          <t>2,53; 5,32</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,33</t>
+          <t>1,09; 3,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,93; 2,84</t>
+          <t>1,06; 2,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,51; 8,1</t>
+          <t>0,49; 7,21</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,64; 4,4</t>
+          <t>2,62; 4,42</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,54</t>
+          <t>1,2; 2,53</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,97; 2,11</t>
+          <t>0,94; 2,1</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,89; 4,43</t>
+          <t>0,84; 4,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P5B_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P5B_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>2,0%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1,42%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2,11%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,73%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,35%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2,06%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,19%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>0,65; 6,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>0; 1,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>0,0; 4,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>0; 0,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>0,51; 5,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>0; 1,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>0,0; 3,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>0,0; 1,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,42</t>
+          <t>0,92; 4,12</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>0; 0,66</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,16</t>
+          <t>0,3; 2,86</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>0,0; 1,01</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>3,17%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0,75%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,88%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,43%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>0,21%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,7; 6,06</t>
+          <t>2,13; 8,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,38</t>
+          <t>1,1; 6,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,02</t>
+          <t>0,0; 2,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,12</t>
+          <t>0; 0,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 6,56</t>
+          <t>2,34; 8,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,67</t>
+          <t>1,3; 6,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,75</t>
+          <t>0,33; 3,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,14</t>
+          <t>0,0; 2,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,07; 4,78</t>
+          <t>2,87; 6,83</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>1,71; 5,04</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,4</t>
+          <t>0,36; 2,35</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,21</t>
+          <t>0,0; 1,07</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,37 +936,37 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>14,83%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -976,22 +976,22 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>7,51%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,36; 8,39</t>
+          <t>0,56; 5,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,29; 6,12</t>
+          <t>0,0; 3,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,07</t>
+          <t>1,49; 6,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,79</t>
+          <t>0,27; 48,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,14; 8,54</t>
+          <t>0,0; 3,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,09; 6,85</t>
+          <t>0,0; 4,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,28</t>
+          <t>0,0; 4,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>0; 0,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,91; 7,16</t>
+          <t>0,53; 3,22</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 5,15</t>
+          <t>0,4; 2,91</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,36</t>
+          <t>1,05; 4,04</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,03</t>
+          <t>0,24; 28,7</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>3,11%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1,75%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1,82%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3,65%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>1,28%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,11%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>2,05%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,95%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>3,26%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,75</t>
+          <t>3,22; 9,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,54</t>
+          <t>1,51; 7,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,93</t>
+          <t>0,47; 4,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,85</t>
+          <t>0,68; 4,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,58; 5,14</t>
+          <t>1,6; 6,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,93</t>
+          <t>0,41; 3,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,47; 6,67</t>
+          <t>0,38; 3,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 22,08</t>
+          <t>2,34; 8,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,55; 3,38</t>
+          <t>2,86; 6,91</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,28; 2,74</t>
+          <t>1,17; 3,9</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,97</t>
+          <t>0,64; 2,98</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,13; 11,97</t>
+          <t>1,93; 5,47</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>2,02%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,78%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4,7%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3,01%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1,55%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,1%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>1,28%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,28%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>4,65%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>5,54%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>3,11%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>1,75%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>1,79%</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>2,87%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,65; 6,55</t>
+          <t>2,59; 5,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,67</t>
+          <t>1,1; 3,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,28</t>
+          <t>1,02; 2,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,49; 8,59</t>
+          <t>0,51; 19,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,09; 9,52</t>
+          <t>1,86; 4,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 6,3</t>
+          <t>0,83; 2,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,49; 4,37</t>
+          <t>0,57; 2,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,68; 3,96</t>
+          <t>0,68; 2,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,03; 7,02</t>
+          <t>2,53; 4,31</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,03; 4,07</t>
+          <t>1,12; 2,54</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,89</t>
+          <t>0,98; 2,11</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,99; 5,43</t>
+          <t>0,87; 9,57</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>3,01%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,55%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,1%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>1,31%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>3,83%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>2,02%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>1,78%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>1,99%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>3,41%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>1,77%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>1,43%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>1,63%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>1,99; 4,57</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,85; 2,66</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,53; 2,1</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,68; 2,18</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>2,53; 5,32</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>1,09; 3,4</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>1,06; 2,89</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0,49; 7,21</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>2,62; 4,42</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>1,2; 2,53</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>0,94; 2,1</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>0,84; 4,58</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
